--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H2">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I2">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J2">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>30.42576739718501</v>
+        <v>61.42708816011725</v>
       </c>
       <c r="R2">
-        <v>121.70306958874</v>
+        <v>245.708352640469</v>
       </c>
       <c r="S2">
-        <v>0.004866943454971791</v>
+        <v>0.01325244160541693</v>
       </c>
       <c r="T2">
-        <v>0.002860172306119304</v>
+        <v>0.008158453407919146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H3">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I3">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J3">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>398.7648255886083</v>
+        <v>280.7464022729342</v>
       </c>
       <c r="R3">
-        <v>2392.58895353165</v>
+        <v>1684.478413637605</v>
       </c>
       <c r="S3">
-        <v>0.06378691563095973</v>
+        <v>0.06056896742939879</v>
       </c>
       <c r="T3">
-        <v>0.0562287926503649</v>
+        <v>0.05593110086256172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H4">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I4">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J4">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>1039.957277545632</v>
+        <v>1015.184070080817</v>
       </c>
       <c r="R4">
-        <v>6239.74366527379</v>
+        <v>6091.1044204849</v>
       </c>
       <c r="S4">
-        <v>0.1663528547802307</v>
+        <v>0.2190184820811768</v>
       </c>
       <c r="T4">
-        <v>0.1466416754236956</v>
+        <v>0.2022478726639415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H5">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I5">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J5">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>710.632865690215</v>
+        <v>291.002629262026</v>
       </c>
       <c r="R5">
-        <v>2842.53146276086</v>
+        <v>1164.010517048104</v>
       </c>
       <c r="S5">
-        <v>0.1136737137771858</v>
+        <v>0.06278167282267005</v>
       </c>
       <c r="T5">
-        <v>0.06680299680636494</v>
+        <v>0.03864958381598266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H6">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I6">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J6">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>40.88271624422167</v>
+        <v>1309.032698276721</v>
       </c>
       <c r="R6">
-        <v>245.29629746533</v>
+        <v>7854.19618966033</v>
       </c>
       <c r="S6">
-        <v>0.006539649950281702</v>
+        <v>0.282414158201252</v>
       </c>
       <c r="T6">
-        <v>0.005764765664290615</v>
+        <v>0.2607892364317044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H7">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I7">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J7">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>1215.829990519397</v>
+        <v>511.2491334104452</v>
       </c>
       <c r="R7">
-        <v>7294.979943116381</v>
+        <v>3067.494800462671</v>
       </c>
       <c r="S7">
-        <v>0.1944856718803507</v>
+        <v>0.1102982330642352</v>
       </c>
       <c r="T7">
-        <v>0.1714410300208868</v>
+        <v>0.1018525139242135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H8">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I8">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J8">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>3.083818467832</v>
+        <v>7.215853172726501</v>
       </c>
       <c r="R8">
-        <v>18.502910806992</v>
+        <v>43.295119036359</v>
       </c>
       <c r="S8">
-        <v>0.0004932914234309404</v>
+        <v>0.001556767147346382</v>
       </c>
       <c r="T8">
-        <v>0.0004348412349136871</v>
+        <v>0.00143756289785271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H9">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I9">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J9">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
-        <v>40.41700304281333</v>
+        <v>32.97933986862834</v>
       </c>
       <c r="R9">
-        <v>363.75302738532</v>
+        <v>296.814058817655</v>
       </c>
       <c r="S9">
-        <v>0.006465153889495476</v>
+        <v>0.007115049547114348</v>
       </c>
       <c r="T9">
-        <v>0.008548644982499329</v>
+        <v>0.009855357555640439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H10">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J10">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>105.4053761861147</v>
+        <v>119.2538896504334</v>
       </c>
       <c r="R10">
-        <v>948.6483856750318</v>
+        <v>1073.2850068539</v>
       </c>
       <c r="S10">
-        <v>0.01686077458790121</v>
+        <v>0.02572814789285928</v>
       </c>
       <c r="T10">
-        <v>0.02229440761125671</v>
+        <v>0.03563715123127453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H11">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J11">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>72.02654008544799</v>
+        <v>34.184141044724</v>
       </c>
       <c r="R11">
-        <v>432.159240512688</v>
+        <v>205.104846268344</v>
       </c>
       <c r="S11">
-        <v>0.01152145460382266</v>
+        <v>0.007374976522502253</v>
       </c>
       <c r="T11">
-        <v>0.01015627539818685</v>
+        <v>0.006810262305031217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H12">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J12">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>4.143687609362667</v>
+        <v>153.772350798091</v>
       </c>
       <c r="R12">
-        <v>37.293188484264</v>
+        <v>1383.951157182819</v>
       </c>
       <c r="S12">
-        <v>0.000662829404648022</v>
+        <v>0.03317525151391611</v>
       </c>
       <c r="T12">
-        <v>0.0008764359458641616</v>
+        <v>0.04595245099881951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H13">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J13">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>123.2310406361227</v>
+        <v>60.05654495224233</v>
       </c>
       <c r="R13">
-        <v>1109.079365725104</v>
+        <v>540.508904570181</v>
       </c>
       <c r="S13">
-        <v>0.01971218996201324</v>
+        <v>0.01295675700804974</v>
       </c>
       <c r="T13">
-        <v>0.02606473360002083</v>
+        <v>0.01794695486381663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H14">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I14">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J14">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>0.3178204369780001</v>
+        <v>0.81259072634475</v>
       </c>
       <c r="R14">
-        <v>1.271281747912</v>
+        <v>3.250362905379</v>
       </c>
       <c r="S14">
-        <v>5.083895092649211E-05</v>
+        <v>0.0001753104611098755</v>
       </c>
       <c r="T14">
-        <v>2.98766897247533E-05</v>
+        <v>0.0001079244316987687</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H15">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I15">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J15">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>4.165403931003334</v>
+        <v>3.7138651655925</v>
       </c>
       <c r="R15">
-        <v>24.99242358602</v>
+        <v>22.283190993555</v>
       </c>
       <c r="S15">
-        <v>0.0006663031743674634</v>
+        <v>0.0008012390414651347</v>
       </c>
       <c r="T15">
-        <v>0.0005873527927035202</v>
+        <v>0.0007398868355391004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H16">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I16">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J16">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>10.86315004230867</v>
+        <v>13.42940363265</v>
       </c>
       <c r="R16">
-        <v>65.17890025385199</v>
+        <v>80.5764217959</v>
       </c>
       <c r="S16">
-        <v>0.001737682941850212</v>
+        <v>0.002897294870519684</v>
       </c>
       <c r="T16">
-        <v>0.001531784580942302</v>
+        <v>0.00267544418386377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H17">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I17">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J17">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>7.423104402142</v>
+        <v>3.849540080166</v>
       </c>
       <c r="R17">
-        <v>29.692417608568</v>
+        <v>15.398160320664</v>
       </c>
       <c r="S17">
-        <v>0.001187408978513385</v>
+        <v>0.0008305099044762297</v>
       </c>
       <c r="T17">
-        <v>0.000697808451608789</v>
+        <v>0.0005112775865931863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H18">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I18">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J18">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>0.4270512744006667</v>
+        <v>17.3165921251065</v>
       </c>
       <c r="R18">
-        <v>2.562307646404</v>
+        <v>103.899552750639</v>
       </c>
       <c r="S18">
-        <v>6.831165103411604E-05</v>
+        <v>0.003735927142510975</v>
       </c>
       <c r="T18">
-        <v>6.021739135066567E-05</v>
+        <v>0.003449860988079871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H19">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I19">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J19">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>12.70027519219067</v>
+        <v>6.7630798903935</v>
       </c>
       <c r="R19">
-        <v>76.20165115314401</v>
+        <v>40.578479342361</v>
       </c>
       <c r="S19">
-        <v>0.002031551757300682</v>
+        <v>0.001459084648235071</v>
       </c>
       <c r="T19">
-        <v>0.00179083282817175</v>
+        <v>0.001347360110151727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H20">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I20">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J20">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>16.83255460948834</v>
+        <v>10.62181577035067</v>
       </c>
       <c r="R20">
-        <v>100.99532765693</v>
+        <v>63.730894622104</v>
       </c>
       <c r="S20">
-        <v>0.002692556293409515</v>
+        <v>0.002291578478751062</v>
       </c>
       <c r="T20">
-        <v>0.002373514819206515</v>
+        <v>0.002116108503564984</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H21">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I21">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J21">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>220.6100709126028</v>
+        <v>48.54595346207555</v>
       </c>
       <c r="R21">
-        <v>1985.490638213425</v>
+        <v>436.91358115868</v>
       </c>
       <c r="S21">
-        <v>0.03528906031235529</v>
+        <v>0.01047343171726563</v>
       </c>
       <c r="T21">
-        <v>0.04666147991720488</v>
+        <v>0.01450719544884979</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H22">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I22">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J22">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>575.3392326085171</v>
+        <v>175.5430460464889</v>
       </c>
       <c r="R22">
-        <v>5178.053093476655</v>
+        <v>1579.8874144184</v>
       </c>
       <c r="S22">
-        <v>0.09203197658020568</v>
+        <v>0.0378721185823448</v>
       </c>
       <c r="T22">
-        <v>0.1216906369545469</v>
+        <v>0.05245828121745109</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H23">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I23">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J23">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>393.1459267033784</v>
+        <v>50.31943413387733</v>
       </c>
       <c r="R23">
-        <v>2358.87556022027</v>
+        <v>301.916604803264</v>
       </c>
       <c r="S23">
-        <v>0.06288810960261454</v>
+        <v>0.01085604710317038</v>
       </c>
       <c r="T23">
-        <v>0.05543648630821296</v>
+        <v>0.01002478152205427</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H24">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I24">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J24">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>22.61768930202056</v>
+        <v>226.3546030737627</v>
       </c>
       <c r="R24">
-        <v>203.559203718185</v>
+        <v>2037.191427663864</v>
       </c>
       <c r="S24">
-        <v>0.003617953607482024</v>
+        <v>0.04883433757324044</v>
       </c>
       <c r="T24">
-        <v>0.004783892461364154</v>
+        <v>0.06764251669509788</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H25">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I25">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J25">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>672.6379139138789</v>
+        <v>88.40389916712621</v>
       </c>
       <c r="R25">
-        <v>6053.741225224911</v>
+        <v>795.635092504136</v>
       </c>
       <c r="S25">
-        <v>0.1075959942095631</v>
+        <v>0.0190724897841433</v>
       </c>
       <c r="T25">
-        <v>0.1422703885720479</v>
+        <v>0.02641811628357041</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H26">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I26">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J26">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>4.689228043334333</v>
+        <v>2.007779716704</v>
       </c>
       <c r="R26">
-        <v>28.135368260006</v>
+        <v>12.046678300224</v>
       </c>
       <c r="S26">
-        <v>0.0007500947284730681</v>
+        <v>0.0004331636782587403</v>
       </c>
       <c r="T26">
-        <v>0.00066121587065691</v>
+        <v>0.0003999956150305518</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H27">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I27">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J27">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>61.45774988795944</v>
+        <v>9.17635767712</v>
       </c>
       <c r="R27">
-        <v>553.119748991635</v>
+        <v>82.58721909408</v>
       </c>
       <c r="S27">
-        <v>0.009830857827506145</v>
+        <v>0.001979731546927033</v>
       </c>
       <c r="T27">
-        <v>0.01299899660197152</v>
+        <v>0.002742210314903587</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H28">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I28">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J28">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>160.2785154463445</v>
+        <v>33.1818753856</v>
       </c>
       <c r="R28">
-        <v>1442.506639017101</v>
+        <v>298.6368784704</v>
       </c>
       <c r="S28">
-        <v>0.02563834994006933</v>
+        <v>0.007158745092387364</v>
       </c>
       <c r="T28">
-        <v>0.03390068594203863</v>
+        <v>0.009915882112694141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H29">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I29">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J29">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>109.5229421433723</v>
+        <v>9.511588356864001</v>
       </c>
       <c r="R29">
-        <v>657.137652860234</v>
+        <v>57.069530141184</v>
       </c>
       <c r="S29">
-        <v>0.01751942554070985</v>
+        <v>0.002052055095718265</v>
       </c>
       <c r="T29">
-        <v>0.01544354569174298</v>
+        <v>0.001894925824316488</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H30">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I30">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J30">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>6.300856014491888</v>
+        <v>42.786486854976</v>
       </c>
       <c r="R30">
-        <v>56.707704130427</v>
+        <v>385.078381694784</v>
       </c>
       <c r="S30">
-        <v>0.001007892735789736</v>
+        <v>0.009230869239129276</v>
       </c>
       <c r="T30">
-        <v>0.001332701019337813</v>
+        <v>0.0127860693447845</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H31">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I31">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J31">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>187.3840686758802</v>
+        <v>16.710472057024</v>
       </c>
       <c r="R31">
-        <v>1686.456618082922</v>
+        <v>150.394248513216</v>
       </c>
       <c r="S31">
-        <v>0.02997418782253745</v>
+        <v>0.003605161204408931</v>
       </c>
       <c r="T31">
-        <v>0.03963381146270339</v>
+        <v>0.0049936620229979</v>
       </c>
     </row>
   </sheetData>
